--- a/data_year/zb/科技/地震监测情况.xlsx
+++ b/data_year/zb/科技/地震监测情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,527 +473,323 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>124</v>
+      </c>
+      <c r="C2" t="n">
+        <v>207</v>
+      </c>
       <c r="D2" t="n">
-        <v>1234</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+        <v>1477</v>
+      </c>
+      <c r="E2" t="n">
+        <v>28294</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1097</v>
+      </c>
       <c r="G2" t="n">
-        <v>252</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>2073</v>
+      </c>
+      <c r="H2" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>186</v>
+      </c>
+      <c r="C3" t="n">
+        <v>187</v>
+      </c>
       <c r="D3" t="n">
-        <v>1306</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+        <v>1617</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37518</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1219</v>
+      </c>
       <c r="G3" t="n">
-        <v>243</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>2209</v>
+      </c>
+      <c r="H3" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1294</v>
+        <v>1687</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="n">
-        <v>150</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>186</v>
+      </c>
+      <c r="C5" t="n">
+        <v>187</v>
+      </c>
       <c r="D5" t="n">
-        <v>1098</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+        <v>1687</v>
+      </c>
+      <c r="E5" t="n">
+        <v>37518</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1033</v>
+      </c>
       <c r="G5" t="n">
-        <v>307</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
+        <v>2209</v>
+      </c>
+      <c r="H5" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>272</v>
+      </c>
+      <c r="C6" t="n">
+        <v>182</v>
+      </c>
       <c r="D6" t="n">
-        <v>1021</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+        <v>1687</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33153</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1212</v>
+      </c>
       <c r="G6" t="n">
-        <v>292</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>700</v>
+      </c>
+      <c r="H6" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="C7" t="n">
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="D7" t="n">
-        <v>1465</v>
+        <v>1687</v>
       </c>
       <c r="E7" t="n">
-        <v>9042</v>
+        <v>32198</v>
       </c>
       <c r="F7" t="n">
-        <v>899</v>
+        <v>1826</v>
       </c>
       <c r="G7" t="n">
-        <v>359</v>
+        <v>2353</v>
       </c>
       <c r="H7" t="n">
-        <v>287</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>107</v>
+        <v>267</v>
       </c>
       <c r="C8" t="n">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="D8" t="n">
-        <v>1314</v>
+        <v>1668</v>
       </c>
       <c r="E8" t="n">
-        <v>11659</v>
+        <v>33841</v>
       </c>
       <c r="F8" t="n">
-        <v>792</v>
+        <v>1372</v>
       </c>
       <c r="G8" t="n">
-        <v>681</v>
+        <v>2612</v>
       </c>
       <c r="H8" t="n">
-        <v>276</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="C9" t="n">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="D9" t="n">
-        <v>1446</v>
+        <v>2086</v>
       </c>
       <c r="E9" t="n">
-        <v>12728</v>
+        <v>35609</v>
       </c>
       <c r="F9" t="n">
-        <v>848</v>
+        <v>1355</v>
       </c>
       <c r="G9" t="n">
-        <v>1976</v>
+        <v>2545</v>
       </c>
       <c r="H9" t="n">
-        <v>345</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>104</v>
+        <v>290</v>
       </c>
       <c r="C10" t="n">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D10" t="n">
-        <v>1457</v>
+        <v>2253</v>
       </c>
       <c r="E10" t="n">
-        <v>16010</v>
+        <v>33941</v>
       </c>
       <c r="F10" t="n">
-        <v>916</v>
+        <v>1478</v>
       </c>
       <c r="G10" t="n">
-        <v>1996</v>
+        <v>2686</v>
       </c>
       <c r="H10" t="n">
-        <v>245</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>127</v>
+        <v>292</v>
       </c>
       <c r="C11" t="n">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="D11" t="n">
-        <v>1446</v>
+        <v>2280</v>
       </c>
       <c r="E11" t="n">
-        <v>22625</v>
+        <v>49644</v>
       </c>
       <c r="F11" t="n">
-        <v>1010</v>
+        <v>1481</v>
       </c>
       <c r="G11" t="n">
-        <v>1972</v>
+        <v>2926</v>
       </c>
       <c r="H11" t="n">
-        <v>240</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>124</v>
+        <v>347</v>
       </c>
       <c r="C12" t="n">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D12" t="n">
-        <v>1477</v>
+        <v>2438</v>
       </c>
       <c r="E12" t="n">
-        <v>28294</v>
+        <v>27472</v>
       </c>
       <c r="F12" t="n">
-        <v>1097</v>
+        <v>1583</v>
       </c>
       <c r="G12" t="n">
-        <v>2073</v>
+        <v>2797</v>
       </c>
       <c r="H12" t="n">
-        <v>216</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>186</v>
+        <v>344</v>
       </c>
       <c r="C13" t="n">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>1617</v>
+        <v>6503</v>
       </c>
       <c r="E13" t="n">
-        <v>37518</v>
+        <v>35878</v>
       </c>
       <c r="F13" t="n">
-        <v>1219</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2209</v>
-      </c>
+        <v>1707</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>1687</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>186</v>
-      </c>
-      <c r="C15" t="n">
-        <v>187</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1687</v>
-      </c>
-      <c r="E15" t="n">
-        <v>37518</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1033</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2209</v>
-      </c>
-      <c r="H15" t="n">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>272</v>
-      </c>
-      <c r="C16" t="n">
-        <v>182</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1687</v>
-      </c>
-      <c r="E16" t="n">
-        <v>33153</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1212</v>
-      </c>
-      <c r="G16" t="n">
-        <v>700</v>
-      </c>
-      <c r="H16" t="n">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>237</v>
-      </c>
-      <c r="C17" t="n">
-        <v>188</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1687</v>
-      </c>
-      <c r="E17" t="n">
-        <v>32198</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1826</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2353</v>
-      </c>
-      <c r="H17" t="n">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>267</v>
-      </c>
-      <c r="C18" t="n">
-        <v>199</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1668</v>
-      </c>
-      <c r="E18" t="n">
-        <v>33841</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1372</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2612</v>
-      </c>
-      <c r="H18" t="n">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>305</v>
-      </c>
-      <c r="C19" t="n">
-        <v>199</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2086</v>
-      </c>
-      <c r="E19" t="n">
-        <v>35609</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1355</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2545</v>
-      </c>
-      <c r="H19" t="n">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>290</v>
-      </c>
-      <c r="C20" t="n">
-        <v>199</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2253</v>
-      </c>
-      <c r="E20" t="n">
-        <v>33941</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1478</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2686</v>
-      </c>
-      <c r="H20" t="n">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>292</v>
-      </c>
-      <c r="C21" t="n">
-        <v>225</v>
-      </c>
-      <c r="D21" t="n">
-        <v>2280</v>
-      </c>
-      <c r="E21" t="n">
-        <v>49644</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1481</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2926</v>
-      </c>
-      <c r="H21" t="n">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>347</v>
-      </c>
-      <c r="C22" t="n">
-        <v>222</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2438</v>
-      </c>
-      <c r="E22" t="n">
-        <v>27472</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1583</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2797</v>
-      </c>
-      <c r="H22" t="n">
-        <v>286</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
